--- a/GlobalMethyl/sample_info_PDO.xlsx
+++ b/GlobalMethyl/sample_info_PDO.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\swang\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC1DBE45-FB0D-459C-9C3C-F1ABE812E968}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E7175DB-74BA-4398-B255-119A6DAF28D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3090" yWindow="1950" windowWidth="20115" windowHeight="11385" xr2:uid="{2150587E-BA14-4F8B-9AAF-31221BE86EE6}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="16440" xr2:uid="{2150587E-BA14-4F8B-9AAF-31221BE86EE6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="14">
   <si>
     <t>Name</t>
   </si>
@@ -70,16 +70,13 @@
     <t>Locally advanced</t>
   </si>
   <si>
-    <t>Normal</t>
-  </si>
-  <si>
-    <t>Tumor</t>
-  </si>
-  <si>
     <t>CombinedStage</t>
   </si>
   <si>
-    <t>NA</t>
+    <t>Early</t>
+  </si>
+  <si>
+    <t>Late</t>
   </si>
 </sst>
 </file>
@@ -431,13 +428,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CFD027A-1DEC-4B79-8A60-F06D3B9C7166}">
-  <dimension ref="A1:D36"/>
+  <dimension ref="A1:D32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="22.85546875" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -450,74 +450,74 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="B2" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="B3" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="B4" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="B5" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B6" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D6" t="s">
         <v>12</v>
@@ -525,69 +525,69 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B7" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B8" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C8" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B9" t="s">
         <v>3</v>
       </c>
       <c r="C9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B10" t="s">
         <v>4</v>
       </c>
       <c r="C10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B11" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D11" t="s">
         <v>12</v>
@@ -595,13 +595,13 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B12" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C12" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D12" t="s">
         <v>12</v>
@@ -609,125 +609,125 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B13" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C13" t="s">
         <v>10</v>
       </c>
       <c r="D13" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B14" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C14" t="s">
         <v>9</v>
       </c>
       <c r="D14" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B15" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C15" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D15" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B16" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D16" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B17" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C17" t="s">
         <v>10</v>
       </c>
       <c r="D17" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B18" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C18" t="s">
         <v>9</v>
       </c>
       <c r="D18" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B19" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C19" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D19" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B20" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C20" t="s">
         <v>9</v>
       </c>
       <c r="D20" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B21" t="s">
         <v>5</v>
       </c>
       <c r="C21" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D21" t="s">
         <v>12</v>
@@ -735,13 +735,13 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B22" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C22" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D22" t="s">
         <v>12</v>
@@ -749,55 +749,55 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B23" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C23" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D23" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="B24" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C24" t="s">
         <v>9</v>
       </c>
       <c r="D24" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="B25" t="s">
         <v>5</v>
       </c>
       <c r="C25" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D25" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="B26" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C26" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D26" t="s">
         <v>12</v>
@@ -805,13 +805,13 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="B27" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C27" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D27" t="s">
         <v>12</v>
@@ -819,13 +819,13 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B28" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C28" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D28" t="s">
         <v>12</v>
@@ -833,38 +833,38 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B29" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C29" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D29" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B30" t="s">
         <v>3</v>
       </c>
       <c r="C30" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D30" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B31" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C31" t="s">
         <v>7</v>
@@ -875,72 +875,16 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B32" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C32" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D32" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33">
-        <v>49</v>
-      </c>
-      <c r="B33" t="s">
-        <v>6</v>
-      </c>
-      <c r="C33" t="s">
-        <v>9</v>
-      </c>
-      <c r="D33" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34">
-        <v>50</v>
-      </c>
-      <c r="B34" t="s">
-        <v>3</v>
-      </c>
-      <c r="C34" t="s">
-        <v>9</v>
-      </c>
-      <c r="D34" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35">
-        <v>51</v>
-      </c>
-      <c r="B35" t="s">
-        <v>5</v>
-      </c>
-      <c r="C35" t="s">
-        <v>7</v>
-      </c>
-      <c r="D35" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36">
-        <v>52</v>
-      </c>
-      <c r="B36" t="s">
-        <v>6</v>
-      </c>
-      <c r="C36" t="s">
-        <v>9</v>
-      </c>
-      <c r="D36" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/GlobalMethyl/sample_info_PDO.xlsx
+++ b/GlobalMethyl/sample_info_PDO.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\swang\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\swang\Desktop\Paper Fig Code\GlobalMethyl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E7175DB-74BA-4398-B255-119A6DAF28D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3360D692-1373-4731-BFCE-1A3AA46A22BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="16440" xr2:uid="{2150587E-BA14-4F8B-9AAF-31221BE86EE6}"/>
+    <workbookView xWindow="9030" yWindow="3825" windowWidth="28800" windowHeight="11835" xr2:uid="{2150587E-BA14-4F8B-9AAF-31221BE86EE6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="18">
   <si>
     <t>Name</t>
   </si>
@@ -70,13 +70,25 @@
     <t>Locally advanced</t>
   </si>
   <si>
+    <t>Normal</t>
+  </si>
+  <si>
+    <t>Tumor</t>
+  </si>
+  <si>
     <t>CombinedStage</t>
   </si>
   <si>
-    <t>Early</t>
-  </si>
-  <si>
-    <t>Late</t>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>Sex</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>M</t>
   </si>
 </sst>
 </file>
@@ -112,8 +124,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -428,18 +443,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CFD027A-1DEC-4B79-8A60-F06D3B9C7166}">
-  <dimension ref="A1:D32"/>
+  <dimension ref="A1:E36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="3" max="3" width="22.85546875" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -447,444 +459,608 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>16</v>
+      </c>
+      <c r="B2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2">
+      <c r="E2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>17</v>
+      </c>
+      <c r="B3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>18</v>
+      </c>
+      <c r="B4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>19</v>
+      </c>
+      <c r="B5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6">
         <v>21</v>
       </c>
-      <c r="B2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="B6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" t="s">
         <v>7</v>
       </c>
-      <c r="D2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3">
+      <c r="E6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7">
         <v>22</v>
       </c>
-      <c r="B3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="B7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" t="s">
         <v>8</v>
       </c>
-      <c r="D3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4">
+      <c r="E7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8">
         <v>23</v>
       </c>
-      <c r="B4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="B8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" t="s">
         <v>7</v>
       </c>
-      <c r="D4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5">
+      <c r="E8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9">
         <v>24</v>
       </c>
-      <c r="B5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6">
+      <c r="B9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10">
         <v>25</v>
-      </c>
-      <c r="B6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>26</v>
-      </c>
-      <c r="B7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>27</v>
-      </c>
-      <c r="B8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D8" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>28</v>
-      </c>
-      <c r="B9" t="s">
-        <v>3</v>
-      </c>
-      <c r="C9" t="s">
-        <v>10</v>
-      </c>
-      <c r="D9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>29</v>
       </c>
       <c r="B10" t="s">
         <v>4</v>
       </c>
-      <c r="C10" t="s">
-        <v>9</v>
+      <c r="C10" s="1" t="s">
+        <v>17</v>
       </c>
       <c r="D10" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="E10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11">
+        <v>26</v>
+      </c>
+      <c r="B11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>27</v>
+      </c>
+      <c r="B12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>28</v>
+      </c>
+      <c r="B13" t="s">
+        <v>3</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>29</v>
+      </c>
+      <c r="B14" t="s">
+        <v>4</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D14" t="s">
+        <v>9</v>
+      </c>
+      <c r="E14" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15">
         <v>30</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B15" t="s">
         <v>4</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C15" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D15" t="s">
         <v>8</v>
       </c>
-      <c r="D11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12">
+      <c r="E15" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16">
         <v>31</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B16" t="s">
         <v>4</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C16" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D16" t="s">
         <v>8</v>
       </c>
-      <c r="D12" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13">
+      <c r="E16" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17">
         <v>32</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B17" t="s">
         <v>4</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C17" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D17" t="s">
         <v>10</v>
       </c>
-      <c r="D13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14">
+      <c r="E17" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18">
         <v>33</v>
       </c>
-      <c r="B14" t="s">
-        <v>3</v>
-      </c>
-      <c r="C14" t="s">
-        <v>9</v>
-      </c>
-      <c r="D14" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15">
+      <c r="B18" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D18" t="s">
+        <v>9</v>
+      </c>
+      <c r="E18" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19">
         <v>34</v>
       </c>
-      <c r="B15" t="s">
-        <v>3</v>
-      </c>
-      <c r="C15" t="s">
+      <c r="B19" t="s">
+        <v>3</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D19" t="s">
         <v>10</v>
       </c>
-      <c r="D15" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16">
+      <c r="E19" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20">
         <v>35</v>
       </c>
-      <c r="B16" t="s">
-        <v>3</v>
-      </c>
-      <c r="C16" t="s">
-        <v>9</v>
-      </c>
-      <c r="D16" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17">
+      <c r="B20" t="s">
+        <v>3</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D20" t="s">
+        <v>9</v>
+      </c>
+      <c r="E20" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21">
         <v>36</v>
-      </c>
-      <c r="B17" t="s">
-        <v>5</v>
-      </c>
-      <c r="C17" t="s">
-        <v>10</v>
-      </c>
-      <c r="D17" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>37</v>
-      </c>
-      <c r="B18" t="s">
-        <v>6</v>
-      </c>
-      <c r="C18" t="s">
-        <v>9</v>
-      </c>
-      <c r="D18" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>38</v>
-      </c>
-      <c r="B19" t="s">
-        <v>6</v>
-      </c>
-      <c r="C19" t="s">
-        <v>9</v>
-      </c>
-      <c r="D19" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>39</v>
-      </c>
-      <c r="B20" t="s">
-        <v>6</v>
-      </c>
-      <c r="C20" t="s">
-        <v>9</v>
-      </c>
-      <c r="D20" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>40</v>
       </c>
       <c r="B21" t="s">
         <v>5</v>
       </c>
-      <c r="C21" t="s">
-        <v>8</v>
+      <c r="C21" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="D21" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+      <c r="E21" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B22" t="s">
-        <v>5</v>
-      </c>
-      <c r="C22" t="s">
-        <v>8</v>
+        <v>6</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="D22" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+      <c r="E22" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B23" t="s">
-        <v>3</v>
-      </c>
-      <c r="C23" t="s">
-        <v>10</v>
+        <v>6</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="D23" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+      <c r="E23" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B24" t="s">
-        <v>5</v>
-      </c>
-      <c r="C24" t="s">
-        <v>9</v>
+        <v>6</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="D24" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+      <c r="E24" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="B25" t="s">
         <v>5</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C25" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D25" t="s">
+        <v>8</v>
+      </c>
+      <c r="E25" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>41</v>
+      </c>
+      <c r="B26" t="s">
+        <v>5</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D26" t="s">
+        <v>8</v>
+      </c>
+      <c r="E26" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>42</v>
+      </c>
+      <c r="B27" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D27" t="s">
         <v>10</v>
       </c>
-      <c r="D25" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26">
+      <c r="E27" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>44</v>
+      </c>
+      <c r="B28" t="s">
+        <v>5</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D28" t="s">
+        <v>9</v>
+      </c>
+      <c r="E28" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>45</v>
+      </c>
+      <c r="B29" t="s">
+        <v>5</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D29" t="s">
+        <v>10</v>
+      </c>
+      <c r="E29" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30">
         <v>46</v>
       </c>
-      <c r="B26" t="s">
-        <v>3</v>
-      </c>
-      <c r="C26" t="s">
+      <c r="B30" t="s">
+        <v>3</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D30" t="s">
         <v>7</v>
       </c>
-      <c r="D26" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27">
+      <c r="E30" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31">
         <v>47</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B31" t="s">
         <v>6</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C31" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D31" t="s">
         <v>7</v>
       </c>
-      <c r="D27" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28">
+      <c r="E31" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32">
         <v>48</v>
       </c>
-      <c r="B28" t="s">
-        <v>3</v>
-      </c>
-      <c r="C28" t="s">
+      <c r="B32" t="s">
+        <v>3</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D32" t="s">
         <v>7</v>
       </c>
-      <c r="D28" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29">
+      <c r="E32" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33">
         <v>49</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B33" t="s">
         <v>6</v>
       </c>
-      <c r="C29" t="s">
-        <v>9</v>
-      </c>
-      <c r="D29" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30">
+      <c r="C33" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D33" t="s">
+        <v>9</v>
+      </c>
+      <c r="E33" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34">
         <v>50</v>
       </c>
-      <c r="B30" t="s">
-        <v>3</v>
-      </c>
-      <c r="C30" t="s">
-        <v>9</v>
-      </c>
-      <c r="D30" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31">
+      <c r="B34" t="s">
+        <v>3</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D34" t="s">
+        <v>9</v>
+      </c>
+      <c r="E34" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35">
         <v>51</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B35" t="s">
         <v>5</v>
       </c>
-      <c r="C31" t="s">
+      <c r="C35" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D35" t="s">
         <v>7</v>
       </c>
-      <c r="D31" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32">
+      <c r="E35" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36">
         <v>52</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B36" t="s">
         <v>6</v>
       </c>
-      <c r="C32" t="s">
-        <v>9</v>
-      </c>
-      <c r="D32" t="s">
-        <v>13</v>
+      <c r="C36" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D36" t="s">
+        <v>9</v>
+      </c>
+      <c r="E36" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
